--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083A0110-0857-4AB0-9D1C-0288F7E21ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1689BB3-7D14-4ED3-99A6-167071136543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>state</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Wilayah Persekutuan Putrajaya</t>
+  </si>
+  <si>
+    <t>action_code_category</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>TBPS</t>
+  </si>
+  <si>
+    <t>DISC</t>
   </si>
 </sst>
 </file>
@@ -458,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,6 +654,39 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1689BB3-7D14-4ED3-99A6-167071136543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721B4E2-DB66-420D-BC5A-2074BCA36E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>state</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>DISC</t>
+  </si>
+  <si>
+    <t>issue_level</t>
+  </si>
+  <si>
+    <t>External Issue</t>
+  </si>
+  <si>
+    <t>Internal Issue</t>
   </si>
 </sst>
 </file>
@@ -470,13 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -685,6 +697,28 @@
       </c>
       <c r="C19" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,42 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4721B4E2-DB66-420D-BC5A-2074BCA36E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>state</t>
   </si>
@@ -104,17 +86,44 @@
     <t>issue_level</t>
   </si>
   <si>
+    <t>Internal Issue</t>
+  </si>
+  <si>
     <t>External Issue</t>
   </si>
   <si>
-    <t>Internal Issue</t>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Non Active</t>
+  </si>
+  <si>
+    <t>branch_type</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Non Critical</t>
+  </si>
+  <si>
+    <t>received_by</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Livechat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,13 +141,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -151,14 +154,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -167,10 +162,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -339,6 +334,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -365,24 +361,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -443,54 +440,27 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
-  <dimension ref="A1:C21"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34.85547" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -534,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -545,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -556,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -567,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -578,7 +548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -589,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -600,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -611,7 +581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -622,7 +592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -633,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -644,7 +614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -655,7 +625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -666,7 +636,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -677,7 +647,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -688,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -699,7 +669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -707,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -718,10 +688,75 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB89E4-3AC8-4D51-9649-99043B3775BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>state</t>
   </si>
@@ -41,9 +43,6 @@
     <t>Pahang</t>
   </si>
   <si>
-    <t>Pulau Pinang</t>
-  </si>
-  <si>
     <t>Perak</t>
   </si>
   <si>
@@ -117,13 +116,16 @@
   </si>
   <si>
     <t>Livechat</t>
+  </si>
+  <si>
+    <t>Penang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +143,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -154,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -162,10 +178,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -445,22 +461,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.85547" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -493,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -504,7 +523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -515,7 +534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -526,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -534,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -545,10 +564,10 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -556,10 +575,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -567,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -578,10 +597,10 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -589,10 +608,10 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -600,10 +619,10 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -611,10 +630,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -622,10 +641,10 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -633,130 +652,131 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>24</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>27</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>30</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AB89E4-3AC8-4D51-9649-99043B3775BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0CAC6-0952-45BA-B66F-FE1B4AE3BE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>state</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>Penang</t>
+  </si>
+  <si>
+    <t>branch_category</t>
+  </si>
+  <si>
+    <t>PTJ</t>
+  </si>
+  <si>
+    <t>Cawangan</t>
   </si>
 </sst>
 </file>
@@ -468,14 +477,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -776,6 +786,28 @@
         <v>31</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE0CAC6-0952-45BA-B66F-FE1B4AE3BE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B3D43-B1EC-41B4-9270-08F7037F46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>state</t>
   </si>
@@ -128,6 +128,42 @@
   </si>
   <si>
     <t>Cawangan</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Separuh Hari</t>
+  </si>
+  <si>
+    <t>Hujung Minggu</t>
   </si>
 </sst>
 </file>
@@ -477,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,6 +844,116 @@
         <v>35</v>
       </c>
     </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0B3D43-B1EC-41B4-9270-08F7037F46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F34CDA-70AC-45CD-A434-E073CD97B66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>state</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>Hujung Minggu</t>
+  </si>
+  <si>
+    <t>action_code_email_recipient</t>
+  </si>
+  <si>
+    <t>To Caller Person| Cc - Active personal in Email UPDT GENERAL GROUP  and  SLA group  | Bcc - Not Available</t>
+  </si>
+  <si>
+    <t>To Selected personal in selected technician group| Cc - Other  active personal in the same selected technician group  | Bcc - Caller Person</t>
+  </si>
+  <si>
+    <t>To Selected personal in selected technician group| Cc - Other  active personal in the same selected technician group  | Bcc - Not Available</t>
   </si>
 </sst>
 </file>
@@ -513,16 +525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="92.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,6 +966,39 @@
         <v>47</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F34CDA-70AC-45CD-A434-E073CD97B66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B50809-3848-48FB-B34F-E22188F00648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>state</t>
   </si>
@@ -176,6 +176,36 @@
   </si>
   <si>
     <t>To Selected personal in selected technician group| Cc - Other  active personal in the same selected technician group  | Bcc - Not Available</t>
+  </si>
+  <si>
+    <t>sla_type</t>
+  </si>
+  <si>
+    <t>Minit</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
+  <si>
+    <t>Hari</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tidak Penting </t>
+  </si>
+  <si>
+    <t>Kritikal</t>
+  </si>
+  <si>
+    <t>Penting</t>
+  </si>
+  <si>
+    <t>Sederhana</t>
+  </si>
+  <si>
+    <t>Rendah</t>
   </si>
 </sst>
 </file>
@@ -525,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +1029,96 @@
         <v>51</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B50809-3848-48FB-B34F-E22188F00648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6250F720-DA3A-4CD1-9696-89E4E4167244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,15 +169,6 @@
     <t>action_code_email_recipient</t>
   </si>
   <si>
-    <t>To Caller Person| Cc - Active personal in Email UPDT GENERAL GROUP  and  SLA group  | Bcc - Not Available</t>
-  </si>
-  <si>
-    <t>To Selected personal in selected technician group| Cc - Other  active personal in the same selected technician group  | Bcc - Caller Person</t>
-  </si>
-  <si>
-    <t>To Selected personal in selected technician group| Cc - Other  active personal in the same selected technician group  | Bcc - Not Available</t>
-  </si>
-  <si>
     <t>sla_type</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>Rendah</t>
+  </si>
+  <si>
+    <t>To: Pengadu, CC: Kumpulan yang berkaitan BCC: Tidak Berkenaan</t>
+  </si>
+  <si>
+    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BC: Pengadu</t>
+  </si>
+  <si>
+    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BCC: Tidak Berkenaan</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,95 +1026,95 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6250F720-DA3A-4CD1-9696-89E4E4167244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F8081-93D0-4CFD-9CFE-BAE942A09739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
   <si>
     <t>state</t>
   </si>
@@ -206,6 +206,30 @@
   </si>
   <si>
     <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BCC: Tidak Berkenaan</t>
+  </si>
+  <si>
+    <t>incident_asset_type</t>
+  </si>
+  <si>
+    <t>Hilang</t>
+  </si>
+  <si>
+    <t>Rosak</t>
+  </si>
+  <si>
+    <t>received_via</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Emel</t>
+  </si>
+  <si>
+    <t>Chatbot</t>
+  </si>
+  <si>
+    <t>Live Chat</t>
   </si>
 </sst>
 </file>
@@ -555,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,6 +1141,72 @@
         <v>58</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F8081-93D0-4CFD-9CFE-BAE942A09739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092F3C-FF6E-41BA-A2FE-3FF84AA1E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
   <si>
     <t>state</t>
   </si>
@@ -230,6 +230,117 @@
   </si>
   <si>
     <t>Live Chat</t>
+  </si>
+  <si>
+    <t>RM 500</t>
+  </si>
+  <si>
+    <t>RM 200</t>
+  </si>
+  <si>
+    <t>RM 10000</t>
+  </si>
+  <si>
+    <t>RM 5000</t>
+  </si>
+  <si>
+    <t>RM 3000</t>
+  </si>
+  <si>
+    <t>RM 1000</t>
+  </si>
+  <si>
+    <t>penalty_price</t>
+  </si>
+  <si>
+    <t>Isu Dalaman</t>
+  </si>
+  <si>
+    <t>Isu Luaran</t>
+  </si>
+  <si>
+    <t>Aktif</t>
+  </si>
+  <si>
+    <t>Tidak Aktif</t>
+  </si>
+  <si>
+    <t>Tidak Kritikal</t>
+  </si>
+  <si>
+    <t>E-mel</t>
+  </si>
+  <si>
+    <t>Sembang Langsung</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>Isnin</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Khamis</t>
+  </si>
+  <si>
+    <t>Jumaat</t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Ahad</t>
+  </si>
+  <si>
+    <t>Half Day</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>To: Complainant, CC: Relevant Group, BCC: Not Applicable</t>
+  </si>
+  <si>
+    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Complainant</t>
+  </si>
+  <si>
+    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Not Applicable</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Not Important</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Damaged / Broken</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -265,8 +376,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,19 +693,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="92.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +716,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,8 +730,11 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -623,8 +744,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -634,8 +758,11 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -645,8 +772,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -656,8 +786,11 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -667,8 +800,11 @@
       <c r="C7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -678,8 +814,11 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -689,8 +828,11 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -700,8 +842,11 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -711,8 +856,11 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -722,8 +870,11 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -733,8 +884,11 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -744,8 +898,11 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -755,8 +912,11 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -766,8 +926,11 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -777,8 +940,11 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -788,8 +954,11 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -799,8 +968,11 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -810,8 +982,11 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -821,8 +996,11 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -832,8 +1010,11 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -843,8 +1024,11 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -854,8 +1038,11 @@
       <c r="C24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -865,8 +1052,11 @@
       <c r="C25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -876,8 +1066,11 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -887,8 +1080,11 @@
       <c r="C27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -898,8 +1094,11 @@
       <c r="C28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -907,10 +1106,13 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -920,8 +1122,11 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>36</v>
       </c>
@@ -931,8 +1136,11 @@
       <c r="C31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -942,8 +1150,11 @@
       <c r="C32" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -953,8 +1164,11 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -964,8 +1178,11 @@
       <c r="C34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -975,8 +1192,11 @@
       <c r="C35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -986,8 +1206,11 @@
       <c r="C36" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -997,8 +1220,11 @@
       <c r="C37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1006,10 +1232,13 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1017,10 +1246,13 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1028,10 +1260,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -1039,10 +1274,13 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1050,10 +1288,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -1061,10 +1302,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1072,10 +1316,13 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1083,10 +1330,13 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -1094,10 +1344,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -1105,10 +1358,13 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
+        <v>27</v>
+      </c>
+      <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
@@ -1116,10 +1372,13 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1127,10 +1386,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1138,10 +1400,13 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -1149,10 +1414,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1160,10 +1428,13 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -1171,10 +1442,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -1182,10 +1456,13 @@
         <v>2</v>
       </c>
       <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -1195,16 +1472,142 @@
       <c r="C55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>65</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83092F3C-FF6E-41BA-A2FE-3FF84AA1E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE5C62-3EFC-40A0-B0B5-0198D02304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
   <si>
     <t>state</t>
   </si>
@@ -184,21 +184,9 @@
     <t>severity</t>
   </si>
   <si>
-    <t xml:space="preserve">Tidak Penting </t>
-  </si>
-  <si>
     <t>Kritikal</t>
   </si>
   <si>
-    <t>Penting</t>
-  </si>
-  <si>
-    <t>Sederhana</t>
-  </si>
-  <si>
-    <t>Rendah</t>
-  </si>
-  <si>
     <t>To: Pengadu, CC: Kumpulan yang berkaitan BCC: Tidak Berkenaan</t>
   </si>
   <si>
@@ -328,12 +316,6 @@
     <t>Important</t>
   </si>
   <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Missing</t>
   </si>
   <si>
@@ -341,6 +323,54 @@
   </si>
   <si>
     <t>Phone</t>
+  </si>
+  <si>
+    <t>0- Tidak Penting</t>
+  </si>
+  <si>
+    <t>0- Not Important</t>
+  </si>
+  <si>
+    <t>1- Kritikal</t>
+  </si>
+  <si>
+    <t>1- Critical</t>
+  </si>
+  <si>
+    <t>2- Important</t>
+  </si>
+  <si>
+    <t>2- Penting</t>
+  </si>
+  <si>
+    <t>3- Sederhana</t>
+  </si>
+  <si>
+    <t>3- Medium</t>
+  </si>
+  <si>
+    <t>4- Low</t>
+  </si>
+  <si>
+    <t>4- Rendah</t>
+  </si>
+  <si>
+    <t>loaner_type</t>
+  </si>
+  <si>
+    <t>Minggu</t>
+  </si>
+  <si>
+    <t>Bulan</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
 </sst>
 </file>
@@ -693,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +1013,7 @@
         <v>21</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -997,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1041,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1039,7 +1069,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1053,7 +1083,7 @@
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1067,7 +1097,7 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,7 +1111,7 @@
         <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1106,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
@@ -1123,7 +1153,7 @@
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1137,7 +1167,7 @@
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1151,7 +1181,7 @@
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1165,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1179,7 +1209,7 @@
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1193,7 +1223,7 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1207,7 +1237,7 @@
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
@@ -1246,7 +1276,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
@@ -1260,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1274,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,10 +1318,10 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1302,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -1316,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
         <v>51</v>
@@ -1330,7 +1360,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D45" t="s">
         <v>52</v>
@@ -1344,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1358,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1372,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1386,10 +1416,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1400,57 +1430,57 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -1459,69 +1489,69 @@
         <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
         <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
         <v>53</v>
@@ -1532,56 +1562,56 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s">
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
         <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E61" t="s">
         <v>53</v>
@@ -1592,22 +1622,64 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
         <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEE5C62-3EFC-40A0-B0B5-0198D02304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A13CD-D0E5-46D1-9733-78A500B35376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4620" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
   <si>
     <t>state</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>Days</t>
-  </si>
-  <si>
-    <t>Not Important</t>
-  </si>
-  <si>
-    <t>Important</t>
   </si>
   <si>
     <t>Missing</t>
@@ -725,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1388,10 +1382,10 @@
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1402,10 +1396,10 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,10 +1410,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,10 +1424,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1444,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
         <v>59</v>
@@ -1458,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
         <v>60</v>
@@ -1472,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
@@ -1537,7 +1531,7 @@
         <v>53</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1551,7 @@
         <v>53</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1577,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1597,7 +1591,7 @@
         <v>53</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1617,7 +1611,7 @@
         <v>53</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,18 +1631,18 @@
         <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D63" t="s">
         <v>52</v>
@@ -1656,30 +1650,30 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>3</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901A13CD-D0E5-46D1-9733-78A500B35376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2595" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="2595" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>state</t>
   </si>
@@ -43,6 +41,9 @@
     <t>Pahang</t>
   </si>
   <si>
+    <t>Penang</t>
+  </si>
+  <si>
     <t>Perak</t>
   </si>
   <si>
@@ -88,37 +89,58 @@
     <t>Internal Issue</t>
   </si>
   <si>
+    <t>Isu Dalaman</t>
+  </si>
+  <si>
     <t>External Issue</t>
   </si>
   <si>
+    <t>Isu Luaran</t>
+  </si>
+  <si>
     <t>status</t>
   </si>
   <si>
     <t>Active</t>
   </si>
   <si>
+    <t>Aktif</t>
+  </si>
+  <si>
     <t>Non Active</t>
   </si>
   <si>
+    <t>Tidak Aktif</t>
+  </si>
+  <si>
     <t>branch_type</t>
   </si>
   <si>
     <t>Critical</t>
   </si>
   <si>
+    <t>Kritikal</t>
+  </si>
+  <si>
     <t>Non Critical</t>
   </si>
   <si>
+    <t>Tidak Kritikal</t>
+  </si>
+  <si>
     <t>received_by</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>E-mel</t>
+  </si>
+  <si>
     <t>Livechat</t>
   </si>
   <si>
-    <t>Penang</t>
+    <t>Sembang Langsung</t>
   </si>
   <si>
     <t>branch_category</t>
@@ -127,6 +149,9 @@
     <t>PTJ</t>
   </si>
   <si>
+    <t>branch</t>
+  </si>
+  <si>
     <t>Cawangan</t>
   </si>
   <si>
@@ -136,78 +161,159 @@
     <t>Monday</t>
   </si>
   <si>
+    <t>Isnin</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
+    <t>Selasa</t>
+  </si>
+  <si>
     <t>Wednesday</t>
   </si>
   <si>
+    <t>Rabu</t>
+  </si>
+  <si>
     <t>Thursday</t>
   </si>
   <si>
+    <t>Khamis</t>
+  </si>
+  <si>
     <t>Friday</t>
   </si>
   <si>
+    <t>Jumaat</t>
+  </si>
+  <si>
     <t>Saturday</t>
   </si>
   <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
     <t>Sunday</t>
   </si>
   <si>
+    <t>Ahad</t>
+  </si>
+  <si>
     <t>duration</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>Half Day</t>
+  </si>
+  <si>
     <t>Separuh Hari</t>
   </si>
   <si>
+    <t>Weekend</t>
+  </si>
+  <si>
     <t>Hujung Minggu</t>
   </si>
   <si>
     <t>action_code_email_recipient</t>
   </si>
   <si>
+    <t>To: Complainant, CC: Relevant Group, BCC: Not Applicable</t>
+  </si>
+  <si>
+    <t>To: Pengadu, CC: Kumpulan yang berkaitan BCC: Tidak Berkenaan</t>
+  </si>
+  <si>
+    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Complainant</t>
+  </si>
+  <si>
+    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BC: Pengadu</t>
+  </si>
+  <si>
+    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Not Applicable</t>
+  </si>
+  <si>
+    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BCC: Tidak Berkenaan</t>
+  </si>
+  <si>
     <t>sla_type</t>
   </si>
   <si>
+    <t>Minutes</t>
+  </si>
+  <si>
     <t>Minit</t>
   </si>
   <si>
+    <t>Hours</t>
+  </si>
+  <si>
     <t>Jam</t>
   </si>
   <si>
+    <t>Days</t>
+  </si>
+  <si>
     <t>Hari</t>
   </si>
   <si>
     <t>severity</t>
   </si>
   <si>
-    <t>Kritikal</t>
-  </si>
-  <si>
-    <t>To: Pengadu, CC: Kumpulan yang berkaitan BCC: Tidak Berkenaan</t>
-  </si>
-  <si>
-    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BC: Pengadu</t>
-  </si>
-  <si>
-    <t>To: Juruteknik yang berkaitan, CC: Kumpulan Juruteknik yang berkaitan BCC: Tidak Berkenaan</t>
+    <t>0- Not Important</t>
+  </si>
+  <si>
+    <t>0- Tidak Penting</t>
+  </si>
+  <si>
+    <t>1- Critical</t>
+  </si>
+  <si>
+    <t>1- Kritikal</t>
+  </si>
+  <si>
+    <t>2- Important</t>
+  </si>
+  <si>
+    <t>2- Penting</t>
+  </si>
+  <si>
+    <t>3- Medium</t>
+  </si>
+  <si>
+    <t>3- Sederhana</t>
+  </si>
+  <si>
+    <t>4- Low</t>
+  </si>
+  <si>
+    <t>4- Rendah</t>
   </si>
   <si>
     <t>incident_asset_type</t>
   </si>
   <si>
+    <t>Missing</t>
+  </si>
+  <si>
     <t>Hilang</t>
   </si>
   <si>
+    <t>Damaged / Broken</t>
+  </si>
+  <si>
     <t>Rosak</t>
   </si>
   <si>
     <t>received_via</t>
   </si>
   <si>
+    <t>Phone</t>
+  </si>
+  <si>
     <t>Telefon</t>
   </si>
   <si>
@@ -220,158 +326,92 @@
     <t>Live Chat</t>
   </si>
   <si>
+    <t>penalty_price</t>
+  </si>
+  <si>
+    <t>RM 10000</t>
+  </si>
+  <si>
+    <t>RM 5000</t>
+  </si>
+  <si>
+    <t>RM 3000</t>
+  </si>
+  <si>
+    <t>RM 1000</t>
+  </si>
+  <si>
     <t>RM 500</t>
   </si>
   <si>
     <t>RM 200</t>
   </si>
   <si>
-    <t>RM 10000</t>
-  </si>
-  <si>
-    <t>RM 5000</t>
-  </si>
-  <si>
-    <t>RM 3000</t>
-  </si>
-  <si>
-    <t>RM 1000</t>
-  </si>
-  <si>
-    <t>penalty_price</t>
-  </si>
-  <si>
-    <t>Isu Dalaman</t>
-  </si>
-  <si>
-    <t>Isu Luaran</t>
-  </si>
-  <si>
-    <t>Aktif</t>
-  </si>
-  <si>
-    <t>Tidak Aktif</t>
-  </si>
-  <si>
-    <t>Tidak Kritikal</t>
-  </si>
-  <si>
-    <t>E-mel</t>
-  </si>
-  <si>
-    <t>Sembang Langsung</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>Isnin</t>
-  </si>
-  <si>
-    <t>Selasa</t>
-  </si>
-  <si>
-    <t>Rabu</t>
-  </si>
-  <si>
-    <t>Khamis</t>
-  </si>
-  <si>
-    <t>Jumaat</t>
-  </si>
-  <si>
-    <t>Sabtu</t>
-  </si>
-  <si>
-    <t>Ahad</t>
-  </si>
-  <si>
-    <t>Half Day</t>
-  </si>
-  <si>
-    <t>Weekend</t>
-  </si>
-  <si>
-    <t>To: Complainant, CC: Relevant Group, BCC: Not Applicable</t>
-  </si>
-  <si>
-    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Complainant</t>
-  </si>
-  <si>
-    <t>To: Relevant Technician, CC: Relevant Technician Group, BCC: Not Applicable</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Missing</t>
-  </si>
-  <si>
-    <t>Damaged / Broken</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>0- Tidak Penting</t>
-  </si>
-  <si>
-    <t>0- Not Important</t>
-  </si>
-  <si>
-    <t>1- Kritikal</t>
-  </si>
-  <si>
-    <t>1- Critical</t>
-  </si>
-  <si>
-    <t>2- Important</t>
-  </si>
-  <si>
-    <t>2- Penting</t>
-  </si>
-  <si>
-    <t>3- Sederhana</t>
-  </si>
-  <si>
-    <t>3- Medium</t>
-  </si>
-  <si>
-    <t>4- Low</t>
-  </si>
-  <si>
-    <t>4- Rendah</t>
-  </si>
-  <si>
     <t>loaner_type</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
     <t>Minggu</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Bulan</t>
   </si>
   <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>Month</t>
+    <t>penalty_response_time</t>
+  </si>
+  <si>
+    <t>15 Minute</t>
+  </si>
+  <si>
+    <t>penalty_timeframe_solution</t>
+  </si>
+  <si>
+    <t>30 Minute After IRT</t>
+  </si>
+  <si>
+    <t>30 Minute Selepas IRT</t>
+  </si>
+  <si>
+    <t>60 Minute After IRT</t>
+  </si>
+  <si>
+    <t>60 Minute Selepas IRT</t>
+  </si>
+  <si>
+    <t>penalty_response_time_location</t>
+  </si>
+  <si>
+    <t>2 Hours AFter IRT</t>
+  </si>
+  <si>
+    <t>2 Jam Selepas IRT</t>
+  </si>
+  <si>
+    <t>3 Hours AFter IRT</t>
+  </si>
+  <si>
+    <t>3 Jam Selepas IRT</t>
+  </si>
+  <si>
+    <t>6 Hours AFter IRT</t>
+  </si>
+  <si>
+    <t>6 Jam Selepas IRT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,13 +429,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -411,14 +445,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,10 +453,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -710,27 +736,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F65"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A52">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="92.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.71094" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -772,7 +795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -786,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -800,7 +823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -814,7 +837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -822,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -836,13 +859,13 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -850,13 +873,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -864,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -878,13 +901,13 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -892,13 +915,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -906,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -920,13 +943,13 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -934,13 +957,13 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -948,693 +971,693 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B33">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
         <v>96</v>
       </c>
-      <c r="D51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>98</v>
       </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>4</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>72</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B60">
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="E61" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>72</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -1642,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -1656,13 +1679,13 @@
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -1670,14 +1693,193 @@
         <v>3</v>
       </c>
       <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
         <v>114</v>
       </c>
-      <c r="D65" t="s">
-        <v>111</v>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>116</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+      <c r="F69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>127</v>
+      </c>
+      <c r="D74" t="s">
+        <v>128</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup r:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -326,27 +326,6 @@
     <t>Live Chat</t>
   </si>
   <si>
-    <t>penalty_price</t>
-  </si>
-  <si>
-    <t>RM 10000</t>
-  </si>
-  <si>
-    <t>RM 5000</t>
-  </si>
-  <si>
-    <t>RM 3000</t>
-  </si>
-  <si>
-    <t>RM 1000</t>
-  </si>
-  <si>
-    <t>RM 500</t>
-  </si>
-  <si>
-    <t>RM 200</t>
-  </si>
-  <si>
     <t>loaner_type</t>
   </si>
   <si>
@@ -405,6 +384,21 @@
   </si>
   <si>
     <t>6 Jam Selepas IRT</t>
+  </si>
+  <si>
+    <t>penalty_loaner</t>
+  </si>
+  <si>
+    <t>3 Month</t>
+  </si>
+  <si>
+    <t>3 Bulan</t>
+  </si>
+  <si>
+    <t>6 Month</t>
+  </si>
+  <si>
+    <t>6 Bulan</t>
   </si>
 </sst>
 </file>
@@ -743,7 +737,7 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A52">
-      <selection activeCell="D74" sqref="D74"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1548,13 +1542,7 @@
         <v>103</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58">
@@ -1568,13 +1556,7 @@
         <v>104</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59">
@@ -1585,30 +1567,24 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" t="s">
-        <v>80</v>
-      </c>
-      <c r="F59" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
         <v>80</v>
@@ -1619,16 +1595,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
         <v>80</v>
@@ -1639,16 +1615,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>80</v>
@@ -1659,35 +1635,47 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>79</v>
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1697,6 +1685,12 @@
       </c>
       <c r="D65" t="s">
         <v>114</v>
+      </c>
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -1710,7 +1704,7 @@
         <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
         <v>80</v>
@@ -1727,10 +1721,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D67" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
         <v>80</v>
@@ -1747,10 +1741,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
         <v>80</v>
@@ -1761,16 +1755,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
         <v>80</v>
@@ -1781,102 +1775,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B70">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
         <v>80</v>
       </c>
       <c r="F70" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" t="s">
-        <v>80</v>
-      </c>
-      <c r="F71" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>80</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-      <c r="C73" t="s">
-        <v>125</v>
-      </c>
-      <c r="D73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" t="s">
-        <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" t="s">
-        <v>128</v>
-      </c>
-      <c r="E74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B3E12-96EC-46DD-A20B-C4C1DB5CD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="2595" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
   <si>
     <t>state</t>
   </si>
@@ -399,13 +401,37 @@
   </si>
   <si>
     <t>6 Bulan</t>
+  </si>
+  <si>
+    <t>incident_status</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Cancel / Duplicate</t>
+  </si>
+  <si>
+    <t>On-Hold</t>
+  </si>
+  <si>
+    <t>Temporary Fix</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>incident_resolution_status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,7 +449,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -439,6 +471,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -447,10 +487,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -730,24 +770,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A52">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.71094" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -775,7 +818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -789,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -803,7 +846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -817,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -831,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -845,7 +888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -859,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -873,7 +916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -887,7 +930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -901,7 +944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -915,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -929,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -943,7 +986,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -985,7 +1028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1042,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1013,7 +1056,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1027,7 +1070,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1084,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1055,7 +1098,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1069,7 +1112,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1097,7 +1140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1111,7 +1154,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1125,7 +1168,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1139,7 +1182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1167,7 +1210,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1181,7 +1224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1195,7 +1238,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -1209,7 +1252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1223,7 +1266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1237,7 +1280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1265,7 +1308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
@@ -1279,7 +1322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -1293,7 +1336,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1307,7 +1350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1321,7 +1364,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1335,7 +1378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -1349,7 +1392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -1363,7 +1406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1377,7 +1420,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1391,7 +1434,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -1405,7 +1448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -1419,7 +1462,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -1433,7 +1476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -1447,7 +1490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -1461,7 +1504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1475,7 +1518,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1489,7 +1532,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -1503,7 +1546,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -1517,7 +1560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1531,7 +1574,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -1545,7 +1588,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -1559,7 +1602,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1573,7 +1616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -1593,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -1613,7 +1656,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -1633,7 +1676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -1653,7 +1696,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -1673,7 +1716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>110</v>
       </c>
@@ -1693,7 +1736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>115</v>
       </c>
@@ -1713,7 +1756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -1733,7 +1776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>115</v>
       </c>
@@ -1753,7 +1796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -1773,7 +1816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -1793,7 +1836,176 @@
         <v>83</v>
       </c>
     </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>127</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+      <c r="D75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>134</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
-  <pageSetup r:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1B3E12-96EC-46DD-A20B-C4C1DB5CD2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BBA96-C6AC-4A33-A10B-51A688894D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
   <si>
     <t>state</t>
   </si>
@@ -346,63 +346,6 @@
     <t>Bulan</t>
   </si>
   <si>
-    <t>penalty_response_time</t>
-  </si>
-  <si>
-    <t>15 Minute</t>
-  </si>
-  <si>
-    <t>penalty_timeframe_solution</t>
-  </si>
-  <si>
-    <t>30 Minute After IRT</t>
-  </si>
-  <si>
-    <t>30 Minute Selepas IRT</t>
-  </si>
-  <si>
-    <t>60 Minute After IRT</t>
-  </si>
-  <si>
-    <t>60 Minute Selepas IRT</t>
-  </si>
-  <si>
-    <t>penalty_response_time_location</t>
-  </si>
-  <si>
-    <t>2 Hours AFter IRT</t>
-  </si>
-  <si>
-    <t>2 Jam Selepas IRT</t>
-  </si>
-  <si>
-    <t>3 Hours AFter IRT</t>
-  </si>
-  <si>
-    <t>3 Jam Selepas IRT</t>
-  </si>
-  <si>
-    <t>6 Hours AFter IRT</t>
-  </si>
-  <si>
-    <t>6 Jam Selepas IRT</t>
-  </si>
-  <si>
-    <t>penalty_loaner</t>
-  </si>
-  <si>
-    <t>3 Month</t>
-  </si>
-  <si>
-    <t>3 Bulan</t>
-  </si>
-  <si>
-    <t>6 Month</t>
-  </si>
-  <si>
-    <t>6 Bulan</t>
-  </si>
-  <si>
     <t>incident_status</t>
   </si>
   <si>
@@ -424,7 +367,22 @@
     <t>Resolved</t>
   </si>
   <si>
-    <t>incident_resolution_status</t>
+    <t>Telah Dibuka</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>workbasket_status</t>
   </si>
 </sst>
 </file>
@@ -460,10 +418,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1423,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -1476,7 +1437,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -1490,7 +1451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -1504,7 +1465,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -1518,7 +1479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -1532,7 +1493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -1546,7 +1507,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -1560,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>96</v>
       </c>
@@ -1574,7 +1535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -1588,7 +1549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>102</v>
       </c>
@@ -1602,7 +1563,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>102</v>
       </c>
@@ -1616,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -1629,14 +1590,8 @@
       <c r="D60" t="s">
         <v>109</v>
       </c>
-      <c r="E60" t="s">
-        <v>80</v>
-      </c>
-      <c r="F60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -1644,19 +1599,13 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
-      </c>
-      <c r="E61" t="s">
-        <v>80</v>
-      </c>
-      <c r="F61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -1664,344 +1613,94 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" t="s">
-        <v>80</v>
-      </c>
-      <c r="F62" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>111</v>
       </c>
       <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
         <v>112</v>
       </c>
-      <c r="E63" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
       <c r="D64" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" t="s">
-        <v>80</v>
-      </c>
-      <c r="F64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E65" t="s">
-        <v>80</v>
-      </c>
-      <c r="F65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="E66" t="s">
-        <v>80</v>
-      </c>
-      <c r="F66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>115</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
       <c r="D67" t="s">
-        <v>119</v>
-      </c>
-      <c r="E67" t="s">
-        <v>80</v>
-      </c>
-      <c r="F67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D71" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-      <c r="C72" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>127</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75">
-        <v>5</v>
-      </c>
-      <c r="C75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>127</v>
-      </c>
-      <c r="B76">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>134</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78" t="s">
-        <v>133</v>
-      </c>
-      <c r="D78" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>134</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>130</v>
-      </c>
-      <c r="D80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>134</v>
-      </c>
-      <c r="B81">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>131</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D82" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8BBA96-C6AC-4A33-A10B-51A688894D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0CA72F-7AEF-4A9A-84EE-0AC32D00546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0CA72F-7AEF-4A9A-84EE-0AC32D00546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775747D9-53BA-4F1A-9583-1D5C90680686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
   <si>
     <t>state</t>
   </si>
@@ -383,6 +383,12 @@
   </si>
   <si>
     <t>workbasket_status</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,16 +1543,16 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1554,13 +1560,13 @@
         <v>102</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,27 +1574,27 @@
         <v>102</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1596,13 +1602,13 @@
         <v>108</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1610,13 +1616,13 @@
         <v>108</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1624,13 +1630,13 @@
         <v>108</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,13 +1644,13 @@
         <v>108</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1652,27 +1658,27 @@
         <v>108</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>116</v>
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1680,13 +1686,13 @@
         <v>120</v>
       </c>
       <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1694,12 +1700,26 @@
         <v>120</v>
       </c>
       <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C69" t="s">
         <v>115</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>119</v>
       </c>
     </row>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775747D9-53BA-4F1A-9583-1D5C90680686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251B80D-AB2B-4F5B-B74B-64F44A2ADC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t>state</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Sistem</t>
+  </si>
+  <si>
+    <t>Dalam Tindakan</t>
   </si>
 </sst>
 </file>
@@ -744,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,11 +1691,11 @@
       <c r="B67">
         <v>1</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D67" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1706,7 +1709,7 @@
         <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,11 +1720,14 @@
         <v>3</v>
       </c>
       <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" t="s">
         <v>115</v>
       </c>
-      <c r="D69" t="s">
-        <v>119</v>
-      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251B80D-AB2B-4F5B-B74B-64F44A2ADC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974962D3-1C8A-4890-96FA-95BEA40F8066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
   <si>
     <t>state</t>
   </si>
@@ -392,6 +392,30 @@
   </si>
   <si>
     <t>Dalam Tindakan</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>Laporan Ringkasan Insiden</t>
+  </si>
+  <si>
+    <t>Laporan Insiden</t>
+  </si>
+  <si>
+    <t>List Incident Report</t>
+  </si>
+  <si>
+    <t>Summary Incident Report</t>
+  </si>
+  <si>
+    <t>report_type</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>excel</t>
   </si>
 </sst>
 </file>
@@ -747,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,8 +1750,61 @@
         <v>115</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
+      <c r="A72" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974962D3-1C8A-4890-96FA-95BEA40F8066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35710228-7299-4C99-BAE0-5F5A26DB0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1419,7 @@
         <v>80</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>81</v>
@@ -1433,7 +1433,7 @@
         <v>80</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
         <v>83</v>
@@ -1447,7 +1447,7 @@
         <v>80</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" t="s">
         <v>85</v>
@@ -1461,7 +1461,7 @@
         <v>80</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
         <v>87</v>
@@ -1475,7 +1475,7 @@
         <v>80</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
         <v>89</v>

--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35710228-7299-4C99-BAE0-5F5A26DB0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>state</t>
   </si>
@@ -73,6 +71,51 @@
     <t>Wilayah Persekutuan Putrajaya</t>
   </si>
   <si>
+    <t>Arab Saudi</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Singapura</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
     <t>action_code_category</t>
   </si>
   <si>
@@ -298,18 +341,18 @@
     <t>incident_asset_type</t>
   </si>
   <si>
+    <t>Damaged / Broken</t>
+  </si>
+  <si>
+    <t>Rosak</t>
+  </si>
+  <si>
     <t>Missing</t>
   </si>
   <si>
     <t>Hilang</t>
   </si>
   <si>
-    <t>Damaged / Broken</t>
-  </si>
-  <si>
-    <t>Rosak</t>
-  </si>
-  <si>
     <t>received_via</t>
   </si>
   <si>
@@ -328,6 +371,12 @@
     <t>Live Chat</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistem</t>
+  </si>
+  <si>
     <t>loaner_type</t>
   </si>
   <si>
@@ -352,6 +401,9 @@
     <t>Open</t>
   </si>
   <si>
+    <t>Resolved</t>
+  </si>
+  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -364,65 +416,56 @@
     <t>Temporary Fix</t>
   </si>
   <si>
-    <t>Resolved</t>
+    <t>workbasket_status</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Baru</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Dalam Tindakan</t>
+  </si>
+  <si>
+    <t>Opened</t>
   </si>
   <si>
     <t>Telah Dibuka</t>
   </si>
   <si>
-    <t>Baru</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Opened</t>
-  </si>
-  <si>
-    <t>workbasket_status</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistem</t>
-  </si>
-  <si>
-    <t>Dalam Tindakan</t>
+    <t>report_type</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>excel</t>
   </si>
   <si>
     <t>report</t>
   </si>
   <si>
+    <t>List Incident Report</t>
+  </si>
+  <si>
+    <t>Laporan Insiden</t>
+  </si>
+  <si>
+    <t>Summary Incident Report</t>
+  </si>
+  <si>
     <t>Laporan Ringkasan Insiden</t>
-  </si>
-  <si>
-    <t>Laporan Insiden</t>
-  </si>
-  <si>
-    <t>List Incident Report</t>
-  </si>
-  <si>
-    <t>Summary Incident Report</t>
-  </si>
-  <si>
-    <t>report_type</t>
-  </si>
-  <si>
-    <t>pdf</t>
-  </si>
-  <si>
-    <t>excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,13 +483,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -465,14 +502,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -481,10 +510,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -764,27 +793,24 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D73"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A10">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -798,7 +824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -826,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -840,7 +866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -854,7 +880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -868,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -882,7 +908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -896,7 +922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -910,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -924,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -938,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -952,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -966,7 +992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -980,7 +1006,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -994,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1008,806 +1034,1015 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="37">
+      <c r="A37" t="s">
         <v>41</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>60</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41">
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
       <c r="C42" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
       <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45">
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C54" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D54" t="s">
         <v>80</v>
       </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
-      <c r="D46" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D55" t="s">
         <v>83</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D56" t="s">
         <v>85</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D57" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54">
-        <v>2</v>
-      </c>
-      <c r="C54" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56">
-        <v>4</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>102</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B59">
         <v>2</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
       <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="D60" t="s">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="D66" t="s">
         <v>108</v>
       </c>
-      <c r="B61">
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68">
         <v>1</v>
       </c>
-      <c r="C61" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62">
+      <c r="C68" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69">
         <v>2</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
         <v>114</v>
       </c>
-      <c r="D62" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>108</v>
-      </c>
-      <c r="B63">
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
-        <v>110</v>
-      </c>
-      <c r="D63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>108</v>
-      </c>
-      <c r="B64">
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
         <v>111</v>
       </c>
-      <c r="D64" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65">
+      <c r="B72">
         <v>5</v>
       </c>
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66">
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>119</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+      <c r="D75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>125</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81">
         <v>6</v>
       </c>
-      <c r="C66" t="s">
-        <v>113</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67">
+      <c r="C81" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82">
         <v>1</v>
       </c>
-      <c r="C67" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68">
+      <c r="C82" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>132</v>
+      </c>
+      <c r="B83">
         <v>2</v>
       </c>
-      <c r="C68" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69">
+      <c r="C83" t="s">
+        <v>135</v>
+      </c>
+      <c r="D83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>132</v>
+      </c>
+      <c r="B84">
         <v>3</v>
       </c>
-      <c r="C69" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>129</v>
-      </c>
-      <c r="B70">
+      <c r="C84" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>139</v>
+      </c>
+      <c r="B85">
         <v>1</v>
       </c>
-      <c r="C70" t="s">
-        <v>130</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71">
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86">
         <v>2</v>
       </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72">
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87">
         <v>1</v>
       </c>
-      <c r="C72" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>124</v>
-      </c>
-      <c r="B73">
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88">
         <v>2</v>
       </c>
-      <c r="C73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" t="s">
-        <v>125</v>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup r:id="rId1" orientation="portrait"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3159179-E7EB-564B-92B6-F0B52FEF5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
   <si>
     <t>state</t>
   </si>
@@ -437,35 +439,20 @@
     <t>Telah Dibuka</t>
   </si>
   <si>
-    <t>report_type</t>
-  </si>
-  <si>
     <t>pdf</t>
   </si>
   <si>
     <t>excel</t>
   </si>
   <si>
-    <t>report</t>
-  </si>
-  <si>
-    <t>List Incident Report</t>
-  </si>
-  <si>
-    <t>Laporan Insiden</t>
-  </si>
-  <si>
-    <t>Summary Incident Report</t>
-  </si>
-  <si>
-    <t>Laporan Ringkasan Insiden</t>
+    <t>report_format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,7 +470,13 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -502,6 +495,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,10 +511,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -793,24 +794,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0" topLeftCell="A10">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A88" activeCellId="1" sqref="A87:XFD87 A88:XFD88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="46.1640625" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -824,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -838,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -852,7 +856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -866,7 +870,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -880,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -894,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -908,7 +912,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -922,7 +926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -936,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -950,7 +954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -964,7 +968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -978,7 +982,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -992,7 +996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1118,7 +1122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1258,7 +1262,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>36</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -1370,7 +1374,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1388,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1398,7 +1402,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -1412,7 +1416,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -1426,7 +1430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -1482,7 +1486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -1496,7 +1500,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -1524,7 +1528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -1538,7 +1542,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>75</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>75</v>
       </c>
@@ -1566,7 +1570,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -1580,7 +1584,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -1636,7 +1640,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>95</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -1678,7 +1682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>95</v>
       </c>
@@ -1692,7 +1696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>95</v>
       </c>
@@ -1706,7 +1710,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -1720,7 +1724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>106</v>
       </c>
@@ -1734,7 +1738,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -1748,7 +1752,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>111</v>
       </c>
@@ -1762,7 +1766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -1776,7 +1780,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -1804,7 +1808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -1832,7 +1836,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -1846,7 +1850,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>125</v>
       </c>
@@ -1874,7 +1878,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -1888,7 +1892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>125</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>125</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>125</v>
       </c>
@@ -1930,7 +1934,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>125</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>132</v>
       </c>
@@ -1958,7 +1962,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>132</v>
       </c>
@@ -1972,7 +1976,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>132</v>
       </c>
@@ -1986,63 +1990,36 @@
         <v>138</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B86">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>145</v>
-      </c>
-      <c r="D88" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <pageSetup r:id="rId1" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/ref_table.xlsx
+++ b/database/seeders/excel/ref_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3159179-E7EB-564B-92B6-F0B52FEF5F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4EC606-A14B-C047-AAAC-2CA2814C5347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="146">
   <si>
     <t>state</t>
   </si>
@@ -446,6 +446,18 @@
   </si>
   <si>
     <t>report_format</t>
+  </si>
+  <si>
+    <t>group_user_type</t>
+  </si>
+  <si>
+    <t>Individu</t>
+  </si>
+  <si>
+    <t>Kumpulan Email</t>
+  </si>
+  <si>
+    <t>Group Email</t>
   </si>
 </sst>
 </file>
@@ -801,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A88" activeCellId="1" sqref="A87:XFD87 A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2018,6 +2030,34 @@
         <v>140</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>145</v>
+      </c>
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
